--- a/biology/Neurosciences/Cortex_somatosensoriel/Cortex_somatosensoriel.xlsx
+++ b/biology/Neurosciences/Cortex_somatosensoriel/Cortex_somatosensoriel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cortex somato-sensoriel (somesthésique) reçoit des informations provenant de la surface du corps par l'intermédiaire de neurones relais et de neurones sensitifs.
 La stimulation électrique de la surface du cortex somato-sensoriel est à l'origine de sensations somatiques fantômes, la stimulation électrique mimant l'arrivée d'une information en provenance de la surface du corps (chaud, froid, douleurs internes ou externes, etc.).
@@ -514,7 +526,9 @@
           <t>Cortex somesthésique primaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ou circonvolution pariétale ascendante. Il occupe le gyrus postcentral (partie antérieure rétrorolandique du lobe pariétal). Le cortex somatosensoriel primaire droit traiter l’information tactile et proprioceptive provenant du côté gauche et vice-versa. Il reçoit les informations issues des noyaux thalamiques ventraux postérieurs.
 Il est constitué de 4 aires corticales différentes, les aires de Brodmann 1, 2, 3a et 3b, formant quatre bandes étroites disposées longitudinalement. Le thalamus se projette principalement sur les aires 3a et 3b qui se projettent à leur tour sur les aires 1 et 2 et sur le cortex somatosensoriel secondaire (SII).
@@ -556,7 +570,9 @@
           <t>À voir aussi</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">neurone
 cerveau
